--- a/docs/assets/disciplinas/LOQ4264.xlsx
+++ b/docs/assets/disciplinas/LOQ4264.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Promover  uma maior conscientização entre os alunos sobre questões ligadas à área de sustentabilidade Compreender o papel da engenharia e da tecnologia no desenvolvimento sustentável; Conhecer os métodos, ferramentas e incentivos para o desenvolvimento sustentável do sistema de produtos-serviços Estabelecer uma compreensão clara do papel e do impacto de vários aspectos das decisões de engenharia sobre problemas ambientais, sociais e econômicos.</t>
+    <t>5840535 - Messias Borges Silva</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840535 - Messias Borges Silva</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Sustentabilidade. Protocolos ambientais. Questões ambientais. Recursos naturais e sua poluição, créditos de carbono, conceito de resíduos zero, ISO 14000, análise do ciclo de vida, estudos de avaliação de impacto ambiental, habitat sustentável, Fontes convencionais e renováveis, Tecnologia e desenvolvimento sustentável, Urbanização sustentável, Ecologia Industrial. Logística Reversa</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Sustentabilidade – necessidade, conceito, desafios, Protocolos ambientais, Questões ambientais globais, regionais e locais, Recursos naturais e sua poluição, Créditos de carbono, Conceito de resíduos zero, ISO 14000, Análise do ciclo de vida, estudos de avaliação de impacto ambiental, habitat sustentável, , Materiais verdes, Energia, Fontes convencionais e renováveis, Tecnologia e desenvolvimento sustentável, Urbanização sustentável, Ecologia Industrial, Logística reversa no contexto da sustentabilidade - conceito, importância, estrutura e tendências; Logística Reversa</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,25 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas Expositivas; trabalhos e seminários.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Avaliação dos trabalhos e apresentações ao longo do semestre</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>NF = (MF + PR)/ 2 , onde NF é a média final da segunda avaliação, MF é a média final da primeira avaliação e PR é a nota da recuperação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>ALLEN, D.T., SHONNARD, D.R. , Sustainable Engineering :concepts, design and case studies, Prentice Hall, 2015 BLOKDIJK, G. , ISO14000 - Simple Steps to Win, Insights and Opportunities for Maxing out Success, Complete Publishing, 2015 LAVE, L.B., HENDRICKSON, C.T. , Environmental Life Cycle Assessment of Goods and Services, Ed John Hopkins, 2006BARBIERI, J.C. Gestão Ambiental Empresarial: conceitos, modelos e instrumentos. Editora Saraiva. 2004 BRAGA, B.et al. Introdução à Engenharia Ambiental. São Paulo: Prentice Hall, 2002.DIAS, Reinaldo. Gestão Ambiental: Responsabilidade Social e Sustentabilidade. São Paulo: Atlas, 2006. LEITE, P. L., Logística Reversa, PrenticeHall, 2009 LEITE, P. R. Logística Reversa - Meio Ambiente e Competitividade, Editora Prentice Hall. São Paulo, 2002 SEIFFERT, M. E. B. Gestão Ambiental: instrumentos, esferas de ação e educação ambiental. Atlas. 2007 TACHIZAWA, T. Gestão Ambiental e Responsabilidade Social Corporativa. 3a. Ed Editora Atlas,. 2005</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -493,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,34 +615,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -665,77 +659,66 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4264.xlsx
+++ b/docs/assets/disciplinas/LOQ4264.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,22 +67,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Promover  uma maior conscientização entre os alunos sobre questões ligadas à área de sustentabilidade Compreender o papel da engenharia e da tecnologia no desenvolvimento sustentável; Conhecer os métodos, ferramentas e incentivos para o desenvolvimento sustentável do sistema de produtos-serviços Estabelecer uma compreensão clara do papel e do impacto de vários aspectos das decisões de engenharia sobre problemas ambientais, sociais e econômicos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To have an increased awareness among students on issues in areas of sustainability To understand the role of engineering and technology within sustainable development; To know the methods, tools, and incentives for sustainable product-service system development To establish a clear understanding of the role and impact of various aspects of engineering and engineering decisions on environmental, societal, and economic problems.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840535 - Messias Borges Silva</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To have an increased awareness among students on issues in areas of sustainability To understand the role of engineering and technology within sustainable development; To know the methods, tools, and incentives for sustainable product-service system development To establish a clear understanding of the role and impact of various aspects of engineering and engineering decisions on environmental, societal, and economic problems.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Sustentabilidade. Protocolos ambientais. Questões ambientais. Recursos naturais e sua poluição, créditos de carbono, conceito de resíduos zero, ISO 14000, análise do ciclo de vida, estudos de avaliação de impacto ambiental, habitat sustentável, Fontes convencionais e renováveis, Tecnologia e desenvolvimento sustentável, Urbanização sustentável, Ecologia Industrial. Logística Reversa</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Sustentabilidade – necessidade, conceito, desafios, Protocolos ambientais, Questões ambientais globais, regionais e locais, Recursos naturais e sua poluição, Créditos de carbono, Conceito de resíduos zero, ISO 14000, Análise do ciclo de vida, estudos de avaliação de impacto ambiental, habitat sustentável, , Materiais verdes, Energia, Fontes convencionais e renováveis, Tecnologia e desenvolvimento sustentável, Urbanização sustentável, Ecologia Industrial, Logística reversa no contexto da sustentabilidade - conceito, importância, estrutura e tendências; Logística Reversa</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas Expositivas; trabalhos e seminários.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas Expositivas; trabalhos e seminários.</t>
+    <t>Avaliação dos trabalhos e apresentações ao longo do semestre</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Avaliação dos trabalhos e apresentações ao longo do semestre</t>
+    <t>NF = (MF + PR)/ 2 , onde NF é a média final da segunda avaliação, MF é a média final da primeira avaliação e PR é a nota da recuperação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>NF = (MF + PR)/ 2 , onde NF é a média final da segunda avaliação, MF é a média final da primeira avaliação e PR é a nota da recuperação</t>
+    <t>ALLEN, D.T., SHONNARD, D.R. , Sustainable Engineering :concepts, design and case studies, Prentice Hall, 2015 BLOKDIJK, G. , ISO14000 - Simple Steps to Win, Insights and Opportunities for Maxing out Success, Complete Publishing, 2015 LAVE, L.B., HENDRICKSON, C.T. , Environmental Life Cycle Assessment of Goods and Services, Ed John Hopkins, 2006BARBIERI, J.C. Gestão Ambiental Empresarial: conceitos, modelos e instrumentos. Editora Saraiva. 2004 BRAGA, B.et al. Introdução à Engenharia Ambiental. São Paulo: Prentice Hall, 2002.DIAS, Reinaldo. Gestão Ambiental: Responsabilidade Social e Sustentabilidade. São Paulo: Atlas, 2006. LEITE, P. L., Logística Reversa, PrenticeHall, 2009 LEITE, P. R. Logística Reversa - Meio Ambiente e Competitividade, Editora Prentice Hall. São Paulo, 2002 SEIFFERT, M. E. B. Gestão Ambiental: instrumentos, esferas de ação e educação ambiental. Atlas. 2007 TACHIZAWA, T. Gestão Ambiental e Responsabilidade Social Corporativa. 3a. Ed Editora Atlas,. 2005</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -484,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -615,37 +624,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -659,66 +665,77 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
